--- a/attendance-files/SA/SA Attendance.xlsx
+++ b/attendance-files/SA/SA Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="148">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Abhimanyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A</t>
   </si>
   <si>
     <t>2024PGP019</t>
@@ -851,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -967,16 +970,19 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1521,11 +1527,11 @@
       <c r="D7" s="36"/>
       <c r="E7" s="37">
         <f t="shared" ref="E7:E49" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="37">
         <f t="shared" ref="F7:F49" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>39</v>
@@ -1551,18 +1557,34 @@
       <c r="N7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
+      <c r="O7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1578,11 +1600,11 @@
       <c r="D8" s="36"/>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>40</v>
@@ -1608,18 +1630,34 @@
       <c r="N8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="O8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1639,7 +1677,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>39</v>
@@ -1665,18 +1703,34 @@
       <c r="N9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="O9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1684,19 +1738,19 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>39</v>
@@ -1722,18 +1776,34 @@
       <c r="N10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="O10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1741,19 +1811,19 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>40</v>
@@ -1779,18 +1849,34 @@
       <c r="N11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="O11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -1798,19 +1884,19 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>39</v>
@@ -1836,18 +1922,34 @@
       <c r="N12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="O12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -1855,19 +1957,19 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>39</v>
@@ -1893,18 +1995,34 @@
       <c r="N13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="O13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -1912,19 +2030,19 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>39</v>
@@ -1950,18 +2068,34 @@
       <c r="N14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="O14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -1969,10 +2103,10 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="37">
@@ -1981,7 +2115,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>39</v>
@@ -2007,18 +2141,34 @@
       <c r="N15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="O15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2026,19 +2176,19 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>40</v>
@@ -2064,18 +2214,34 @@
       <c r="N16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="O16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2083,19 +2249,19 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>39</v>
@@ -2121,18 +2287,34 @@
       <c r="N17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="O17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2140,19 +2322,19 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>40</v>
@@ -2178,18 +2360,34 @@
       <c r="N18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="O18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2197,19 +2395,19 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>40</v>
@@ -2235,18 +2433,34 @@
       <c r="N19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="O19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2254,19 +2468,19 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>39</v>
@@ -2292,18 +2506,34 @@
       <c r="N20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="O20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2311,19 +2541,19 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>40</v>
@@ -2349,18 +2579,34 @@
       <c r="N21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="O21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2368,19 +2614,19 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>39</v>
@@ -2406,18 +2652,34 @@
       <c r="N22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="O22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2425,19 +2687,19 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>39</v>
@@ -2463,18 +2725,34 @@
       <c r="N23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="O23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2482,19 +2760,19 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>39</v>
@@ -2520,18 +2798,34 @@
       <c r="N24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="O24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2539,19 +2833,19 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>39</v>
@@ -2577,18 +2871,34 @@
       <c r="N25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="O25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2596,19 +2906,19 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>39</v>
@@ -2634,18 +2944,34 @@
       <c r="N26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="O26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2653,10 +2979,10 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="37">
@@ -2665,7 +2991,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>39</v>
@@ -2691,18 +3017,34 @@
       <c r="N27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="O27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2710,19 +3052,19 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>40</v>
@@ -2748,18 +3090,34 @@
       <c r="N28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="O28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2767,19 +3125,19 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>40</v>
@@ -2805,18 +3163,34 @@
       <c r="N29" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
+      <c r="O29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2824,19 +3198,19 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>39</v>
@@ -2862,18 +3236,34 @@
       <c r="N30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
+      <c r="O30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2881,19 +3271,19 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38" t="s">
@@ -2917,18 +3307,34 @@
       <c r="N31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
+      <c r="O31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2936,19 +3342,19 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>39</v>
@@ -2974,18 +3380,34 @@
       <c r="N32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
+      <c r="O32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2993,19 +3415,19 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="38" t="s">
@@ -3029,18 +3451,34 @@
       <c r="N33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
+      <c r="O33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3048,19 +3486,19 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>39</v>
@@ -3086,18 +3524,34 @@
       <c r="N34" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
+      <c r="O34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3105,10 +3559,10 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="37">
@@ -3117,7 +3571,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G35" s="39" t="s">
         <v>39</v>
@@ -3143,18 +3597,34 @@
       <c r="N35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
+      <c r="O35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3162,10 +3632,10 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="37">
@@ -3174,7 +3644,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>39</v>
@@ -3200,18 +3670,34 @@
       <c r="N36" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
+      <c r="O36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3219,19 +3705,19 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>39</v>
@@ -3257,18 +3743,34 @@
       <c r="N37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
+      <c r="O37" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3276,19 +3778,19 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>40</v>
@@ -3314,18 +3816,34 @@
       <c r="N38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="O38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S38" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3333,10 +3851,10 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="37">
@@ -3345,7 +3863,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>39</v>
@@ -3371,18 +3889,34 @@
       <c r="N39" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
+      <c r="O39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V39" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3390,19 +3924,19 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>40</v>
@@ -3428,18 +3962,34 @@
       <c r="N40" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
+      <c r="O40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U40" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3447,19 +3997,19 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>40</v>
@@ -3485,18 +4035,34 @@
       <c r="N41" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
+      <c r="O41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U41" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3504,19 +4070,19 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>39</v>
@@ -3542,18 +4108,34 @@
       <c r="N42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
+      <c r="O42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U42" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3561,19 +4143,19 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>39</v>
@@ -3599,18 +4181,34 @@
       <c r="N43" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
+      <c r="O43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T43" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U43" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V43" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3618,10 +4216,10 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="37">
@@ -3630,7 +4228,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>39</v>
@@ -3656,18 +4254,34 @@
       <c r="N44" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
+      <c r="O44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3675,19 +4289,19 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>39</v>
@@ -3713,18 +4327,34 @@
       <c r="N45" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
+      <c r="O45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S45" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U45" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V45" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3732,10 +4362,10 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="37">
@@ -3744,7 +4374,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>40</v>
@@ -3770,18 +4400,34 @@
       <c r="N46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
+      <c r="O46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3789,19 +4435,19 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>39</v>
@@ -3827,18 +4473,34 @@
       <c r="N47" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
+      <c r="O47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U47" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3846,19 +4508,19 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>39</v>
@@ -3884,18 +4546,34 @@
       <c r="N48" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
+      <c r="O48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S48" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3903,10 +4581,10 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="37">
@@ -3915,7 +4593,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>40</v>
@@ -3941,18 +4619,34 @@
       <c r="N49" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="41"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
+      <c r="O49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V49" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3960,10 +4654,10 @@
         <v>44.0</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="37"/>
@@ -3977,17 +4671,27 @@
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
       <c r="O50" s="37"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S50" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U50" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V50" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3995,19 +4699,19 @@
         <v>45.0</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D51" s="36"/>
       <c r="E51" s="37">
         <f t="shared" ref="E51:E93" si="3">COUNTIF(G51:Z51,"A")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" ref="F51:F93" si="4">COUNTIF(G51:Z51,"P")</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>40</v>
@@ -4033,18 +4737,34 @@
       <c r="N51" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O51" s="37"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
+      <c r="O51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q51" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S51" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U51" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V51" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -4052,10 +4772,10 @@
         <v>46.0</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="37">
@@ -4064,7 +4784,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>40</v>
@@ -4090,18 +4810,34 @@
       <c r="N52" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
+      <c r="O52" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q52" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S52" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U52" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V52" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -4109,19 +4845,19 @@
         <v>47.0</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53" s="36"/>
       <c r="E53" s="37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>40</v>
@@ -4147,18 +4883,34 @@
       <c r="N53" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
+      <c r="O53" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -4166,19 +4918,19 @@
         <v>48.0</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D54" s="36"/>
       <c r="E54" s="37">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>40</v>
@@ -4204,18 +4956,34 @@
       <c r="N54" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
+      <c r="O54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q54" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U54" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V54" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -4223,19 +4991,19 @@
         <v>49.0</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G55" s="39" t="s">
         <v>39</v>
@@ -4261,18 +5029,34 @@
       <c r="N55" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
+      <c r="O55" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R55" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S55" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U55" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V55" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -4280,19 +5064,19 @@
         <v>50.0</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D56" s="36"/>
       <c r="E56" s="37">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>39</v>
@@ -4318,18 +5102,34 @@
       <c r="N56" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
+      <c r="O56" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S56" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U56" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4337,19 +5137,19 @@
         <v>51.0</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57" s="36"/>
       <c r="E57" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G57" s="39" t="s">
         <v>40</v>
@@ -4375,18 +5175,34 @@
       <c r="N57" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
+      <c r="O57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q57" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R57" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S57" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V57" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W57" s="41"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -4394,10 +5210,10 @@
         <v>52.0</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D58" s="36"/>
       <c r="E58" s="37">
@@ -4406,7 +5222,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>39</v>
@@ -4432,18 +5248,34 @@
       <c r="N58" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
+      <c r="O58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q58" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R58" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S58" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U58" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V58" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W58" s="41"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="41"/>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4451,19 +5283,19 @@
         <v>53.0</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59" s="36"/>
       <c r="E59" s="37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>40</v>
@@ -4489,18 +5321,34 @@
       <c r="N59" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
+      <c r="O59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U59" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W59" s="41"/>
+      <c r="X59" s="41"/>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41"/>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4508,19 +5356,19 @@
         <v>54.0</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D60" s="36"/>
       <c r="E60" s="37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>39</v>
@@ -4546,26 +5394,42 @@
       <c r="N60" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="40"/>
+      <c r="O60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S60" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U60" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V60" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W60" s="41"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="33">
         <v>54.0</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="36"/>
       <c r="E61" s="37">
         <f t="shared" si="3"/>
@@ -4575,35 +5439,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G61" s="41"/>
+      <c r="G61" s="44"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
-      <c r="L61" s="41"/>
+      <c r="L61" s="44"/>
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="41"/>
+      <c r="X61" s="41"/>
+      <c r="Y61" s="41"/>
+      <c r="Z61" s="41"/>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="37">
         <v>55.0</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4614,33 +5478,33 @@
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="41"/>
+      <c r="I62" s="44"/>
       <c r="J62" s="37"/>
-      <c r="K62" s="41"/>
+      <c r="K62" s="44"/>
       <c r="L62" s="37"/>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="41"/>
+      <c r="X62" s="41"/>
+      <c r="Y62" s="41"/>
+      <c r="Z62" s="41"/>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="37">
         <v>56.0</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="48"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4649,8 +5513,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
@@ -4659,25 +5523,25 @@
       <c r="N63" s="37"/>
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="41"/>
+      <c r="Z63" s="41"/>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="37">
         <v>57.0</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="48"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4692,29 +5556,29 @@
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
       <c r="L64" s="37"/>
-      <c r="M64" s="41"/>
+      <c r="M64" s="44"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="37">
         <v>58.0</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="48"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4723,35 +5587,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G65" s="41"/>
+      <c r="G65" s="44"/>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
-      <c r="J65" s="41"/>
+      <c r="J65" s="44"/>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="41"/>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="37">
         <v>59.0</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="48"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4762,33 +5626,33 @@
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="37"/>
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="41"/>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="37">
         <v>60.0</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="48"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4802,30 +5666,30 @@
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="41"/>
+      <c r="L67" s="44"/>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
       <c r="O67" s="37"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="37">
         <v>61.0</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="48"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4844,25 +5708,25 @@
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="37">
         <v>62.0</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="48"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4881,25 +5745,25 @@
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="37">
         <v>63.0</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="48"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4914,29 +5778,29 @@
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
-      <c r="M70" s="41"/>
+      <c r="M70" s="44"/>
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="41"/>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="37">
         <v>64.0</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="48"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4947,7 +5811,7 @@
       </c>
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
-      <c r="I71" s="41"/>
+      <c r="I71" s="44"/>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
       <c r="L71" s="37"/>
@@ -4955,25 +5819,25 @@
       <c r="N71" s="37"/>
       <c r="O71" s="37"/>
       <c r="P71" s="37"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="41"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="41"/>
+      <c r="Z71" s="41"/>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="37">
         <v>65.0</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="48"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4982,35 +5846,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G72" s="41"/>
+      <c r="G72" s="44"/>
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
       <c r="L72" s="37"/>
       <c r="M72" s="37"/>
-      <c r="N72" s="41"/>
+      <c r="N72" s="44"/>
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="37">
         <v>66.0</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="48"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5025,29 +5889,29 @@
       <c r="J73" s="37"/>
       <c r="K73" s="37"/>
       <c r="L73" s="37"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="37">
         <v>67.0</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="48"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5059,32 +5923,32 @@
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
-      <c r="J74" s="41"/>
+      <c r="J74" s="44"/>
       <c r="K74" s="37"/>
-      <c r="L74" s="41"/>
+      <c r="L74" s="44"/>
       <c r="M74" s="37"/>
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="37">
         <v>68.0</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="48"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5103,25 +5967,25 @@
       <c r="N75" s="37"/>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="37">
         <v>69.0</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="48"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5134,31 +5998,31 @@
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
-      <c r="K76" s="41"/>
+      <c r="K76" s="44"/>
       <c r="L76" s="37"/>
-      <c r="M76" s="41"/>
+      <c r="M76" s="44"/>
       <c r="N76" s="37"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="37">
         <v>70.0</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="48"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5168,34 +6032,34 @@
         <v>0</v>
       </c>
       <c r="G77" s="37"/>
-      <c r="H77" s="41"/>
+      <c r="H77" s="44"/>
       <c r="I77" s="37"/>
       <c r="J77" s="37"/>
       <c r="K77" s="37"/>
       <c r="L77" s="37"/>
       <c r="M77" s="37"/>
-      <c r="N77" s="41"/>
+      <c r="N77" s="44"/>
       <c r="O77" s="37"/>
       <c r="P77" s="37"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="41"/>
+      <c r="U77" s="41"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="41"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="37">
         <v>71.0</v>
       </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="48"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5206,33 +6070,33 @@
       </c>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
       <c r="M78" s="37"/>
       <c r="N78" s="37"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="40"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
-      <c r="Z78" s="40"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="37">
         <v>72.0</v>
       </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="48"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5241,35 +6105,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G79" s="41"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
       <c r="K79" s="37"/>
       <c r="L79" s="37"/>
       <c r="M79" s="37"/>
-      <c r="N79" s="41"/>
+      <c r="N79" s="44"/>
       <c r="O79" s="37"/>
       <c r="P79" s="37"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="40"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
-      <c r="Z79" s="40"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="41"/>
+      <c r="X79" s="41"/>
+      <c r="Y79" s="41"/>
+      <c r="Z79" s="41"/>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="37">
         <v>73.0</v>
       </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="48"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="49"/>
       <c r="E80" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5279,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="37"/>
-      <c r="H80" s="41"/>
+      <c r="H80" s="44"/>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
@@ -5287,26 +6151,26 @@
       <c r="M80" s="37"/>
       <c r="N80" s="37"/>
       <c r="O80" s="37"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="40"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
-      <c r="Z80" s="40"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="41"/>
+      <c r="W80" s="41"/>
+      <c r="X80" s="41"/>
+      <c r="Y80" s="41"/>
+      <c r="Z80" s="41"/>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="37">
         <v>74.0</v>
       </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="48"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5320,30 +6184,30 @@
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
       <c r="K81" s="37"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
       <c r="N81" s="37"/>
       <c r="O81" s="37"/>
       <c r="P81" s="37"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="40"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="37">
         <v>75.0</v>
       </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="48"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5352,8 +6216,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
       <c r="K82" s="37"/>
@@ -5361,26 +6225,26 @@
       <c r="M82" s="37"/>
       <c r="N82" s="37"/>
       <c r="O82" s="37"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="40"/>
-      <c r="U82" s="40"/>
-      <c r="V82" s="40"/>
-      <c r="W82" s="40"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
-      <c r="Z82" s="40"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="37">
         <v>76.0</v>
       </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="48"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5392,32 +6256,32 @@
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
       <c r="L83" s="37"/>
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
       <c r="O83" s="37"/>
       <c r="P83" s="37"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="40"/>
-      <c r="Z83" s="40"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="37">
         <v>77.0</v>
       </c>
-      <c r="B84" s="49"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="48"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5429,32 +6293,32 @@
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
-      <c r="J84" s="41"/>
+      <c r="J84" s="44"/>
       <c r="K84" s="37"/>
-      <c r="L84" s="41"/>
+      <c r="L84" s="44"/>
       <c r="M84" s="37"/>
       <c r="N84" s="37"/>
       <c r="O84" s="37"/>
       <c r="P84" s="37"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="40"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="40"/>
-      <c r="W84" s="40"/>
-      <c r="X84" s="40"/>
-      <c r="Y84" s="40"/>
-      <c r="Z84" s="40"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="37">
         <v>78.0</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="48"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5468,30 +6332,30 @@
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
       <c r="K85" s="37"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
       <c r="N85" s="37"/>
       <c r="O85" s="37"/>
       <c r="P85" s="37"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="40"/>
-      <c r="U85" s="40"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="40"/>
-      <c r="X85" s="40"/>
-      <c r="Y85" s="40"/>
-      <c r="Z85" s="40"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+      <c r="S85" s="41"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="41"/>
+      <c r="X85" s="41"/>
+      <c r="Y85" s="41"/>
+      <c r="Z85" s="41"/>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="37">
         <v>79.0</v>
       </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="48"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5502,33 +6366,33 @@
       </c>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
-      <c r="I86" s="41"/>
+      <c r="I86" s="44"/>
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
       <c r="L86" s="37"/>
       <c r="M86" s="37"/>
-      <c r="N86" s="41"/>
+      <c r="N86" s="44"/>
       <c r="O86" s="37"/>
       <c r="P86" s="37"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="40"/>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="40"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="41"/>
+      <c r="Z86" s="41"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="37">
         <v>80.0</v>
       </c>
-      <c r="B87" s="49"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="48"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5542,30 +6406,30 @@
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
       <c r="K87" s="37"/>
-      <c r="L87" s="41"/>
+      <c r="L87" s="44"/>
       <c r="M87" s="37"/>
-      <c r="N87" s="41"/>
+      <c r="N87" s="44"/>
       <c r="O87" s="37"/>
       <c r="P87" s="37"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
-      <c r="Z87" s="40"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="37">
         <v>81.0</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="48"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5574,35 +6438,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="40"/>
-      <c r="Z88" s="40"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="37">
         <v>82.0</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="48"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5611,35 +6475,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="40"/>
-      <c r="Z89" s="40"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="37">
         <v>83.0</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="48"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5648,35 +6512,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
-      <c r="W90" s="40"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="40"/>
-      <c r="Z90" s="40"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="37">
         <v>84.0</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="48"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5685,35 +6549,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="40"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
-      <c r="Z91" s="40"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="37">
         <v>85.0</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="48"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5722,35 +6586,35 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="48"/>
-      <c r="P92" s="48"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
-      <c r="Z92" s="40"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="41"/>
+      <c r="Z92" s="41"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="37">
         <v>86.0</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="48"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5759,55 +6623,55 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
-      <c r="W93" s="40"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="40"/>
-      <c r="Z93" s="40"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="41"/>
+      <c r="Z93" s="41"/>
       <c r="AA93" s="19"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="51"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="52"/>
-      <c r="L94" s="52"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="52"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="51"/>
-      <c r="R94" s="51"/>
-      <c r="S94" s="51"/>
-      <c r="T94" s="51"/>
-      <c r="U94" s="51"/>
-      <c r="V94" s="51"/>
-      <c r="W94" s="51"/>
-      <c r="X94" s="51"/>
-      <c r="Y94" s="51"/>
-      <c r="Z94" s="51"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="53"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
+      <c r="O94" s="53"/>
+      <c r="P94" s="53"/>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="52"/>
+      <c r="S94" s="52"/>
+      <c r="T94" s="52"/>
+      <c r="U94" s="52"/>
+      <c r="V94" s="52"/>
+      <c r="W94" s="52"/>
+      <c r="X94" s="52"/>
+      <c r="Y94" s="52"/>
+      <c r="Z94" s="52"/>
       <c r="AA94" s="6"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">

--- a/attendance-files/SA/SA Attendance.xlsx
+++ b/attendance-files/SA/SA Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="148">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F7" s="37">
         <f t="shared" ref="F7:F49" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>39</v>
@@ -1581,7 +1581,9 @@
       <c r="V7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="41"/>
+      <c r="W7" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X7" s="41"/>
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
@@ -1604,7 +1606,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>40</v>
@@ -1654,7 +1656,9 @@
       <c r="V8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="41"/>
+      <c r="W8" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X8" s="41"/>
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>39</v>
@@ -1727,7 +1731,9 @@
       <c r="V9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="41"/>
+      <c r="W9" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X9" s="41"/>
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
@@ -1750,7 +1756,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>39</v>
@@ -1800,7 +1806,9 @@
       <c r="V10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="41"/>
+      <c r="W10" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X10" s="41"/>
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
@@ -1823,7 +1831,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>40</v>
@@ -1873,7 +1881,9 @@
       <c r="V11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="41"/>
+      <c r="W11" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X11" s="41"/>
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
@@ -1896,7 +1906,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>39</v>
@@ -1946,7 +1956,9 @@
       <c r="V12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W12" s="41"/>
+      <c r="W12" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X12" s="41"/>
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
@@ -1969,7 +1981,7 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>39</v>
@@ -2019,7 +2031,9 @@
       <c r="V13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="41"/>
+      <c r="W13" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
@@ -2042,7 +2056,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>39</v>
@@ -2092,7 +2106,9 @@
       <c r="V14" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W14" s="41"/>
+      <c r="W14" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X14" s="41"/>
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
@@ -2115,7 +2131,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>39</v>
@@ -2165,7 +2181,9 @@
       <c r="V15" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="41"/>
+      <c r="W15" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X15" s="41"/>
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
@@ -2188,7 +2206,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>40</v>
@@ -2238,7 +2256,9 @@
       <c r="V16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="41"/>
+      <c r="W16" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X16" s="41"/>
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
@@ -2257,7 +2277,7 @@
       <c r="D17" s="36"/>
       <c r="E17" s="37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
@@ -2311,7 +2331,9 @@
       <c r="V17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="41"/>
+      <c r="W17" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X17" s="41"/>
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
@@ -2334,7 +2356,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>40</v>
@@ -2384,7 +2406,9 @@
       <c r="V18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="41"/>
+      <c r="W18" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2403,7 +2427,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
@@ -2457,7 +2481,9 @@
       <c r="V19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="41"/>
+      <c r="W19" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X19" s="41"/>
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
@@ -2480,7 +2506,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>39</v>
@@ -2530,7 +2556,9 @@
       <c r="V20" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W20" s="41"/>
+      <c r="W20" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X20" s="41"/>
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
@@ -2553,7 +2581,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>40</v>
@@ -2603,7 +2631,9 @@
       <c r="V21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W21" s="41"/>
+      <c r="W21" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X21" s="41"/>
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
@@ -2626,7 +2656,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>39</v>
@@ -2676,7 +2706,9 @@
       <c r="V22" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W22" s="41"/>
+      <c r="W22" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X22" s="41"/>
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
@@ -2699,7 +2731,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>39</v>
@@ -2749,7 +2781,9 @@
       <c r="V23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="41"/>
+      <c r="W23" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X23" s="41"/>
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
@@ -2772,7 +2806,7 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>39</v>
@@ -2822,7 +2856,9 @@
       <c r="V24" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="41"/>
+      <c r="W24" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X24" s="41"/>
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
@@ -2845,7 +2881,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>39</v>
@@ -2895,7 +2931,9 @@
       <c r="V25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="41"/>
+      <c r="W25" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X25" s="41"/>
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
@@ -2914,7 +2952,7 @@
       <c r="D26" s="36"/>
       <c r="E26" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
@@ -2968,7 +3006,9 @@
       <c r="V26" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W26" s="41"/>
+      <c r="W26" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X26" s="41"/>
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
@@ -2991,7 +3031,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>39</v>
@@ -3041,7 +3081,9 @@
       <c r="V27" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="41"/>
+      <c r="W27" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X27" s="41"/>
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
@@ -3060,7 +3102,7 @@
       <c r="D28" s="36"/>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
@@ -3114,7 +3156,9 @@
       <c r="V28" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="41"/>
+      <c r="W28" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" s="41"/>
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
@@ -3137,7 +3181,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>40</v>
@@ -3187,7 +3231,9 @@
       <c r="V29" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W29" s="41"/>
+      <c r="W29" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X29" s="41"/>
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
@@ -3206,7 +3252,7 @@
       <c r="D30" s="36"/>
       <c r="E30" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
@@ -3260,7 +3306,9 @@
       <c r="V30" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W30" s="41"/>
+      <c r="W30" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X30" s="41"/>
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
@@ -3283,7 +3331,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38" t="s">
@@ -3331,7 +3379,9 @@
       <c r="V31" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W31" s="41"/>
+      <c r="W31" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X31" s="41"/>
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
@@ -3354,7 +3404,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>39</v>
@@ -3404,7 +3454,9 @@
       <c r="V32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W32" s="41"/>
+      <c r="W32" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X32" s="41"/>
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
@@ -3423,7 +3475,7 @@
       <c r="D33" s="36"/>
       <c r="E33" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
@@ -3475,7 +3527,9 @@
       <c r="V33" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="41"/>
+      <c r="W33" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X33" s="41"/>
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
@@ -3498,7 +3552,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>39</v>
@@ -3548,7 +3602,9 @@
       <c r="V34" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W34" s="41"/>
+      <c r="W34" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X34" s="41"/>
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
@@ -3567,7 +3623,7 @@
       <c r="D35" s="36"/>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
@@ -3621,7 +3677,9 @@
       <c r="V35" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W35" s="41"/>
+      <c r="W35" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X35" s="41"/>
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
@@ -3644,7 +3702,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>39</v>
@@ -3694,7 +3752,9 @@
       <c r="V36" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W36" s="41"/>
+      <c r="W36" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X36" s="41"/>
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
@@ -3717,7 +3777,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>39</v>
@@ -3767,7 +3827,9 @@
       <c r="V37" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W37" s="41"/>
+      <c r="W37" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X37" s="41"/>
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
@@ -3786,7 +3848,7 @@
       <c r="D38" s="36"/>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
@@ -3840,7 +3902,9 @@
       <c r="V38" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W38" s="41"/>
+      <c r="W38" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X38" s="41"/>
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
@@ -3863,7 +3927,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>39</v>
@@ -3913,7 +3977,9 @@
       <c r="V39" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W39" s="41"/>
+      <c r="W39" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X39" s="41"/>
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
@@ -3932,7 +3998,7 @@
       <c r="D40" s="36"/>
       <c r="E40" s="37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
@@ -3986,7 +4052,9 @@
       <c r="V40" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="41"/>
+      <c r="W40" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X40" s="41"/>
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
@@ -4009,7 +4077,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>40</v>
@@ -4059,7 +4127,9 @@
       <c r="V41" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W41" s="41"/>
+      <c r="W41" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X41" s="41"/>
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
@@ -4078,7 +4148,7 @@
       <c r="D42" s="36"/>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
@@ -4132,7 +4202,9 @@
       <c r="V42" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W42" s="41"/>
+      <c r="W42" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X42" s="41"/>
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
@@ -4155,7 +4227,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>39</v>
@@ -4205,7 +4277,9 @@
       <c r="V43" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W43" s="41"/>
+      <c r="W43" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X43" s="41"/>
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
@@ -4228,7 +4302,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>39</v>
@@ -4278,7 +4352,9 @@
       <c r="V44" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W44" s="41"/>
+      <c r="W44" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X44" s="41"/>
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
@@ -4301,7 +4377,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>39</v>
@@ -4351,7 +4427,9 @@
       <c r="V45" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W45" s="41"/>
+      <c r="W45" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X45" s="41"/>
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
@@ -4374,7 +4452,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>40</v>
@@ -4424,7 +4502,9 @@
       <c r="V46" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W46" s="41"/>
+      <c r="W46" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X46" s="41"/>
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
@@ -4443,7 +4523,7 @@
       <c r="D47" s="36"/>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
@@ -4497,7 +4577,9 @@
       <c r="V47" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W47" s="41"/>
+      <c r="W47" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="X47" s="41"/>
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
@@ -4520,7 +4602,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>39</v>
@@ -4570,7 +4652,9 @@
       <c r="V48" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W48" s="41"/>
+      <c r="W48" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X48" s="41"/>
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
@@ -4589,11 +4673,11 @@
       <c r="D49" s="36"/>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>40</v>
@@ -4617,7 +4701,7 @@
         <v>40</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O49" s="38" t="s">
         <v>40</v>
@@ -4643,7 +4727,9 @@
       <c r="V49" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W49" s="41"/>
+      <c r="W49" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X49" s="41"/>
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
@@ -4688,7 +4774,9 @@
       <c r="V50" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W50" s="41"/>
+      <c r="W50" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X50" s="41"/>
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
@@ -4711,7 +4799,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" ref="F51:F93" si="4">COUNTIF(G51:Z51,"P")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>40</v>
@@ -4761,7 +4849,9 @@
       <c r="V51" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W51" s="41"/>
+      <c r="W51" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X51" s="41"/>
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
@@ -4784,7 +4874,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>40</v>
@@ -4834,7 +4924,9 @@
       <c r="V52" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W52" s="41"/>
+      <c r="W52" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X52" s="41"/>
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
@@ -4857,7 +4949,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>40</v>
@@ -4907,7 +4999,9 @@
       <c r="V53" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W53" s="41"/>
+      <c r="W53" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X53" s="41"/>
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
@@ -4930,7 +5024,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>40</v>
@@ -4980,7 +5074,9 @@
       <c r="V54" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W54" s="41"/>
+      <c r="W54" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X54" s="41"/>
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
@@ -5003,7 +5099,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" s="39" t="s">
         <v>39</v>
@@ -5053,7 +5149,9 @@
       <c r="V55" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W55" s="41"/>
+      <c r="W55" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X55" s="41"/>
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
@@ -5076,7 +5174,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="39" t="s">
         <v>39</v>
@@ -5126,7 +5224,9 @@
       <c r="V56" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W56" s="41"/>
+      <c r="W56" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X56" s="41"/>
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
@@ -5149,7 +5249,7 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" s="39" t="s">
         <v>40</v>
@@ -5199,7 +5299,9 @@
       <c r="V57" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W57" s="41"/>
+      <c r="W57" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X57" s="41"/>
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
@@ -5222,7 +5324,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>39</v>
@@ -5272,7 +5374,9 @@
       <c r="V58" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W58" s="41"/>
+      <c r="W58" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X58" s="41"/>
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
@@ -5295,7 +5399,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>40</v>
@@ -5345,7 +5449,9 @@
       <c r="V59" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="41"/>
+      <c r="W59" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X59" s="41"/>
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
@@ -5368,7 +5474,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>39</v>
@@ -5418,7 +5524,9 @@
       <c r="V60" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="W60" s="41"/>
+      <c r="W60" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="X60" s="41"/>
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
